--- a/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
+++ b/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eco" sheetId="1" r:id="rId1"/>
+    <sheet name="Normal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>【電線】</t>
   </si>
@@ -509,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -676,4 +677,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
+++ b/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Eco" sheetId="1" r:id="rId1"/>
-    <sheet name="Normal" sheetId="2" r:id="rId2"/>
+    <sheet name="EcoKey" sheetId="3" r:id="rId2"/>
+    <sheet name="Normal" sheetId="2" r:id="rId3"/>
+    <sheet name="NormalKey" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>【電線】</t>
   </si>
@@ -154,6 +156,36 @@
   </si>
   <si>
     <t>【その他】</t>
+  </si>
+  <si>
+    <t>コントロール銅</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>FEP</t>
   </si>
 </sst>
 </file>
@@ -681,10 +713,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -840,4 +1066,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
+++ b/Arent3d.Architecture.Routing.AppBase/resources/ElectricalCategory.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E1A07-8D54-4CAC-A640-AEFF8EAABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="343" windowWidth="24686" windowHeight="13097" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eco" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>【電線】</t>
   </si>
@@ -43,21 +44,6 @@
   </si>
   <si>
     <t>CVV3.5ﾛ</t>
-  </si>
-  <si>
-    <t>CVVS1.25ﾛ</t>
-  </si>
-  <si>
-    <t>CVVS2ﾛ</t>
-  </si>
-  <si>
-    <t>KPEVS0.75ﾛ</t>
-  </si>
-  <si>
-    <t>KPEVS0.9ﾛ</t>
-  </si>
-  <si>
-    <t>KPEVS1.25ﾛ</t>
   </si>
   <si>
     <t>CPEV0.65mm</t>
@@ -186,24 +172,282 @@
   </si>
   <si>
     <t>FEP</t>
+  </si>
+  <si>
+    <t>中央監視</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>集中管理装置</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動制御盤</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>UPS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>動力・分電盤</t>
+    <rPh sb="0" eb="2">
+      <t>ドウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ブンデンバン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>直入れ・Y－△</t>
+    <rPh sb="0" eb="1">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>端末処理</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>光ファイバ端末処理</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>タンマツショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>結線費</t>
+    <rPh sb="0" eb="2">
+      <t>ケッセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プルボックス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>防水プルボックス</t>
+    <rPh sb="0" eb="2">
+      <t>ボウスイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>防水SUSプルボックス</t>
+    <rPh sb="0" eb="2">
+      <t>ボウスイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リレー・トランスBOX</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジャンクションボックス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モジュラコネクタ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>はつり・レントゲン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>耐震架台</t>
+    <rPh sb="0" eb="2">
+      <t>タイシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>試運転・施工調査</t>
+    <rPh sb="0" eb="3">
+      <t>シウンテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>外注費・仮設盛替</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カセツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハンドホール・マンホール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>一式物</t>
+    <rPh sb="0" eb="2">
+      <t>イッシキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>防火区画個別</t>
+    <rPh sb="0" eb="2">
+      <t>ボウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>準防火区画個別</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EM-CE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EM-CET</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EM-IE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EM-CEE1.25ﾛ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EM-CEE2ﾛ</t>
+  </si>
+  <si>
+    <t>EM-CEE3.5ﾛ</t>
+  </si>
+  <si>
+    <t>EM-CEES1.25ﾛ</t>
+  </si>
+  <si>
+    <t>EM-CEES2ﾛ</t>
+  </si>
+  <si>
+    <t>EM-CPEE0.65mm</t>
+  </si>
+  <si>
+    <t>EM-CPEE0.9mm</t>
+  </si>
+  <si>
+    <t>EM-CPEE1.2mm</t>
+  </si>
+  <si>
+    <t>EM-CPEES0.65mm</t>
+  </si>
+  <si>
+    <t>EM-CPEES0.9mm</t>
+  </si>
+  <si>
+    <t>EM-CPEES1.2mm</t>
+  </si>
+  <si>
+    <t>EM-KPEES0.75ﾛ</t>
+  </si>
+  <si>
+    <t>EM-KPEES0.9ﾛ</t>
+  </si>
+  <si>
+    <t>EM-KPEES1.25ﾛ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -213,17 +457,30 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +519,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,14 +796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
@@ -554,380 +811,563 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -938,12 +1378,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -954,143 +1394,240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1101,12 +1638,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1117,116 +1654,213 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>